--- a/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
@@ -76,7 +76,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="3">
+  <x:fonts count="2">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -86,13 +86,6 @@
     </x:font>
     <x:font>
       <x:b/>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
@@ -496,7 +496,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G2" s="0">
-        <x:f>IF(D2=F2,"Yes", "No")</x:f>
+        <x:f>IF(C2=F2,"Yes", "No")</x:f>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
@@ -519,7 +519,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G3" s="0">
-        <x:f>IF(D3=F3,"Yes", "No")</x:f>
+        <x:f>IF(C3=F3,"Yes", "No")</x:f>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
@@ -542,7 +542,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G4" s="0">
-        <x:f>IF(D4=F4,"Yes", "No")</x:f>
+        <x:f>IF(C4=F4,"Yes", "No")</x:f>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">

--- a/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
@@ -9,7 +9,7 @@
     <x:sheet name="Formulas" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="A10_R1C1_A10_R1C1">'Formulas'!$A$10:$A$10</x:definedName>
+    <x:definedName name="A10_R1C1_A10_R1C1">Formulas!$A$10:$A$10</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725" calcMode="auto" refMode="R1C1"/>
 </x:workbook>

--- a/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
@@ -150,7 +150,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -433,7 +433,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
@@ -552,6 +552,12 @@
       <x:c r="B6" s="0">
         <x:f t="array" ref="B6:B6">A2+A3</x:f>
       </x:c>
+      <x:c r="C6" s="0">
+        <x:f t="array" ref="C6:D6">TRANSPOSE(A2:A3)</x:f>
+      </x:c>
+      <x:c r="D6" s="0">
+        <x:f t="array"/>
+      </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="n">

--- a/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
@@ -103,7 +103,6 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF00FFFF"/>
-        <x:bgColor rgb="FF00FFFF"/>
       </x:patternFill>
     </x:fill>
   </x:fills>

--- a/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
@@ -60,7 +60,7 @@
     <x:t>"Test" &amp; A4 &amp; "R3C2"</x:t>
   </x:si>
   <x:si>
-    <x:t>="Test" &amp; RC[-2] &amp; "R3C2"</x:t>
+    <x:t>"Test" &amp; RC[-2] &amp; "R3C2"</x:t>
   </x:si>
   <x:si>
     <x:t>TestAR3C2</x:t>
@@ -447,7 +447,7 @@
     <x:col min="2" max="2" width="7.110625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="11.020625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="20.190625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="24.200625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="23.160625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="10.330625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="11.170625" style="0" customWidth="1"/>
   </x:cols>

--- a/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
@@ -443,13 +443,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="14.560625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="7.110625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.020625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="20.190625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="24.200625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.330625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="11.170625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="12.210625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="5.930625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.340625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="16.740625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="20.020625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="8.580625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="9.240625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">
